--- a/data/trans_orig/P12_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P12_3_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B21DE93A-C083-41E2-B1FB-9A4A813EAA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1672492-E188-41FC-A727-E725D128DAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5EA4543E-D004-4222-9CAB-C5FABBB9EF7A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8508D725-C52C-443C-842E-52F1950E3F27}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,838 +80,832 @@
     <t>7,46%</t>
   </si>
   <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2015 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
   </si>
   <si>
     <t>88,95%</t>
   </si>
   <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2015 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
     <t>78,69%</t>
   </si>
   <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>6,89%</t>
   </si>
   <si>
     <t>8,92%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
     <t>6,44%</t>
   </si>
   <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>91,83%</t>
   </si>
   <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
+    <t>11,91%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>89,26%</t>
   </si>
   <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>88,09%</t>
   </si>
   <si>
     <t>85,87%</t>
   </si>
   <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>87,46%</t>
   </si>
   <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3FFDF6-3B0B-4947-9B91-DDE05764133D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2492AE2-C2DB-4EA8-AD3B-648B77EFF7D3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1990,7 +1984,7 @@
         <v>6072</v>
       </c>
       <c r="N14" s="7">
-        <v>6203169</v>
+        <v>6203170</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2041,7 +2035,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2074,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CBB4D4-2BF9-4B05-B30B-2E08B2662D26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4841BE3F-0B30-4AA2-AFE0-8992E69877CC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2228,13 +2222,13 @@
         <v>386733</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2243,13 @@
         <v>838122</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1011</v>
@@ -2264,13 +2258,13 @@
         <v>1084537</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1792</v>
@@ -2279,13 +2273,13 @@
         <v>1922659</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2347,13 @@
         <v>123031</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -2368,13 +2362,13 @@
         <v>189693</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>289</v>
@@ -2383,13 +2377,13 @@
         <v>312725</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,16 +2395,16 @@
         <v>1737</v>
       </c>
       <c r="D8" s="7">
-        <v>1838387</v>
+        <v>1838386</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1459</v>
@@ -2419,13 +2413,13 @@
         <v>1564089</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3196</v>
@@ -2434,13 +2428,13 @@
         <v>3402475</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,7 +2446,7 @@
         <v>1854</v>
       </c>
       <c r="D9" s="7">
-        <v>1961418</v>
+        <v>1961417</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2508,13 +2502,13 @@
         <v>17296</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -2523,13 +2517,13 @@
         <v>28219</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -2538,13 +2532,13 @@
         <v>45515</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,10 +2553,10 @@
         <v>462948</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>133</v>
@@ -2574,10 +2568,10 @@
         <v>429348</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>135</v>
@@ -2669,7 +2663,7 @@
         <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>428</v>
@@ -2678,13 +2672,13 @@
         <v>470222</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>685</v>
@@ -2693,13 +2687,13 @@
         <v>744972</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,43 +2708,43 @@
         <v>3139457</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>2860</v>
       </c>
       <c r="I14" s="7">
-        <v>3077972</v>
+        <v>3077973</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>5800</v>
       </c>
       <c r="N14" s="7">
-        <v>6217431</v>
+        <v>6217430</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,7 +2771,7 @@
         <v>3288</v>
       </c>
       <c r="I15" s="7">
-        <v>3548194</v>
+        <v>3548195</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2792,7 +2786,7 @@
         <v>6485</v>
       </c>
       <c r="N15" s="7">
-        <v>6962403</v>
+        <v>6962402</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2825,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FFAC7C-2FD2-4CDE-8677-FD146A2AFA53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029230BE-138C-490B-9506-547CEE19BD3C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2842,7 +2836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2949,13 +2943,13 @@
         <v>100276</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>186</v>
@@ -2964,13 +2958,13 @@
         <v>211520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>290</v>
@@ -2979,13 +2973,13 @@
         <v>311796</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +2994,13 @@
         <v>653084</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>704</v>
@@ -3015,13 +3009,13 @@
         <v>781024</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1361</v>
@@ -3030,13 +3024,13 @@
         <v>1434108</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3098,13 @@
         <v>119751</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -3119,13 +3113,13 @@
         <v>176991</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>271</v>
@@ -3134,13 +3128,13 @@
         <v>296741</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3149,13 @@
         <v>1952349</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="H8" s="7">
         <v>1743</v>
@@ -3274,13 +3268,13 @@
         <v>23872</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -3289,13 +3283,13 @@
         <v>53063</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3304,13 @@
         <v>517695</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>502</v>
@@ -3325,13 +3319,13 @@
         <v>524198</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>977</v>
@@ -3343,10 +3337,10 @@
         <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3408,13 @@
         <v>249218</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>370</v>
@@ -3429,13 +3423,13 @@
         <v>412382</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>610</v>
@@ -3444,13 +3438,13 @@
         <v>661600</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,43 +3459,43 @@
         <v>3123128</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>2949</v>
       </c>
       <c r="I14" s="7">
-        <v>3112657</v>
+        <v>3112658</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>5919</v>
       </c>
       <c r="N14" s="7">
-        <v>6235786</v>
+        <v>6235785</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3522,7 @@
         <v>3319</v>
       </c>
       <c r="I15" s="7">
-        <v>3525039</v>
+        <v>3525040</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3543,7 +3537,7 @@
         <v>6529</v>
       </c>
       <c r="N15" s="7">
-        <v>6897386</v>
+        <v>6897385</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3576,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69801E68-9DDC-443F-ACAC-7F9026245C51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB163C64-85AA-4E9F-8BE7-3185BBB6E75E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3593,7 +3587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3700,13 +3694,13 @@
         <v>100474</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>357</v>
@@ -3715,13 +3709,13 @@
         <v>214305</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>483</v>
@@ -3730,13 +3724,13 @@
         <v>314779</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3745,13 @@
         <v>440664</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>1066</v>
@@ -3766,13 +3760,13 @@
         <v>619526</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>1630</v>
@@ -3781,13 +3775,13 @@
         <v>1060189</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3849,13 @@
         <v>204510</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
         <v>375</v>
@@ -3870,13 +3864,13 @@
         <v>266251</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>90</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>586</v>
@@ -3885,10 +3879,10 @@
         <v>470761</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>246</v>
@@ -3906,13 +3900,13 @@
         <v>1954481</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H8" s="7">
         <v>2543</v>
@@ -3921,13 +3915,13 @@
         <v>1981578</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>4322</v>
@@ -3936,13 +3930,13 @@
         <v>3936059</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4004,13 @@
         <v>57422</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>87</v>
@@ -4025,13 +4019,13 @@
         <v>55874</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -4040,13 +4034,13 @@
         <v>113296</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4055,13 @@
         <v>615617</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>917</v>
@@ -4076,13 +4070,13 @@
         <v>658012</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>1540</v>
@@ -4091,7 +4085,7 @@
         <v>1273630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>271</v>
@@ -4168,10 +4162,10 @@
         <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H13" s="7">
         <v>819</v>
@@ -4180,13 +4174,13 @@
         <v>536431</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>1214</v>
@@ -4195,13 +4189,13 @@
         <v>898837</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4210,13 @@
         <v>3010762</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>283</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>4526</v>
@@ -4231,28 +4225,28 @@
         <v>3259115</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>7492</v>
       </c>
       <c r="N14" s="7">
-        <v>6269877</v>
+        <v>6269878</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,7 +4288,7 @@
         <v>8706</v>
       </c>
       <c r="N15" s="7">
-        <v>7168714</v>
+        <v>7168715</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P12_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P12_3_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1672492-E188-41FC-A727-E725D128DAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FDBA285-0B65-41DC-9958-61C2E075F200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8508D725-C52C-443C-842E-52F1950E3F27}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1735F11E-ACFC-41C1-862F-A929D0631DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>9,08%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>90,92%</t>
   </si>
   <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
   </si>
   <si>
     <t>88,46%</t>
   </si>
   <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>89,54%</t>
   </si>
   <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,655 +140,685 @@
     <t>3,4%</t>
   </si>
   <si>
-    <t>2,54%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2016 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>88,16%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2015 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
   </si>
   <si>
     <t>86,63%</t>
@@ -1317,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2492AE2-C2DB-4EA8-AD3B-648B77EFF7D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AB018E-E3E4-44D9-B530-8DACEE6FEDEB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1644,7 +1674,7 @@
         <v>1595</v>
       </c>
       <c r="D8" s="7">
-        <v>1635818</v>
+        <v>1635819</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1695,7 +1725,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1954,7 +1984,7 @@
         <v>3052</v>
       </c>
       <c r="D14" s="7">
-        <v>3110498</v>
+        <v>3110497</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2005,7 +2035,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2068,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4841BE3F-0B30-4AA2-AFE0-8992E69877CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94DB897-75EA-44E5-8E1A-FB5BF53A82DA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2222,13 +2252,13 @@
         <v>386733</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2273,13 @@
         <v>838122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1011</v>
@@ -2258,13 +2288,13 @@
         <v>1084537</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1792</v>
@@ -2273,13 +2303,13 @@
         <v>1922659</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2377,13 @@
         <v>123031</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -2362,13 +2392,13 @@
         <v>189693</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>289</v>
@@ -2377,13 +2407,13 @@
         <v>312725</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,16 +2425,16 @@
         <v>1737</v>
       </c>
       <c r="D8" s="7">
-        <v>1838386</v>
+        <v>1838387</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>1459</v>
@@ -2413,13 +2443,13 @@
         <v>1564089</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>3196</v>
@@ -2428,13 +2458,13 @@
         <v>3402475</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,7 +2476,7 @@
         <v>1854</v>
       </c>
       <c r="D9" s="7">
-        <v>1961417</v>
+        <v>1961418</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2517,13 +2547,13 @@
         <v>28219</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -2532,13 +2562,13 @@
         <v>45515</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2583,13 @@
         <v>462948</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>390</v>
@@ -2568,13 +2598,13 @@
         <v>429348</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>812</v>
@@ -2583,13 +2613,13 @@
         <v>892296</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2687,13 @@
         <v>274751</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>428</v>
@@ -2672,13 +2702,13 @@
         <v>470222</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>685</v>
@@ -2687,13 +2717,13 @@
         <v>744972</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2738,13 @@
         <v>3139457</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>2860</v>
@@ -2723,28 +2753,28 @@
         <v>3077973</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>5800</v>
       </c>
       <c r="N14" s="7">
-        <v>6217430</v>
+        <v>6217431</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,7 +2816,7 @@
         <v>6485</v>
       </c>
       <c r="N15" s="7">
-        <v>6962402</v>
+        <v>6962403</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2819,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029230BE-138C-490B-9506-547CEE19BD3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684C8C7B-AE4B-43DC-B3F8-D88369AB8DF3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2836,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2943,13 +2973,13 @@
         <v>100276</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>186</v>
@@ -2958,13 +2988,13 @@
         <v>211520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>290</v>
@@ -2973,13 +3003,13 @@
         <v>311796</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +3024,13 @@
         <v>653084</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>704</v>
@@ -3009,7 +3039,7 @@
         <v>781024</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>171</v>
@@ -3101,10 +3131,10 @@
         <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -3113,13 +3143,13 @@
         <v>176991</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>271</v>
@@ -3128,13 +3158,13 @@
         <v>296741</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3179,13 @@
         <v>1952349</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1743</v>
@@ -3164,13 +3194,13 @@
         <v>1807434</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>3581</v>
@@ -3179,13 +3209,13 @@
         <v>3759783</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3283,13 @@
         <v>29191</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -3268,13 +3298,13 @@
         <v>23872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -3283,13 +3313,13 @@
         <v>53063</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3334,13 @@
         <v>517695</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>502</v>
@@ -3319,13 +3349,13 @@
         <v>524198</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>977</v>
@@ -3334,13 +3364,13 @@
         <v>1041893</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3438,13 @@
         <v>249218</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>370</v>
@@ -3423,13 +3453,13 @@
         <v>412382</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>610</v>
@@ -3438,13 +3468,13 @@
         <v>661600</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3489,13 @@
         <v>3123128</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>2949</v>
@@ -3474,13 +3504,13 @@
         <v>3112658</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>5919</v>
@@ -3489,13 +3519,13 @@
         <v>6235785</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB163C64-85AA-4E9F-8BE7-3185BBB6E75E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF78DE58-81E7-41BB-9D16-1D40B56904F0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3694,13 +3724,13 @@
         <v>100474</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>357</v>
@@ -3709,13 +3739,13 @@
         <v>214305</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>483</v>
@@ -3724,13 +3754,13 @@
         <v>314779</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3775,13 @@
         <v>440664</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>1066</v>
@@ -3760,13 +3790,13 @@
         <v>619526</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>1630</v>
@@ -3775,13 +3805,13 @@
         <v>1060189</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3879,13 @@
         <v>204510</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>375</v>
@@ -3864,13 +3894,13 @@
         <v>266251</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>586</v>
@@ -3879,13 +3909,13 @@
         <v>470761</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3930,13 @@
         <v>1954481</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>2543</v>
@@ -3915,13 +3945,13 @@
         <v>1981578</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>4322</v>
@@ -3930,13 +3960,13 @@
         <v>3936059</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +4034,13 @@
         <v>57422</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>87</v>
@@ -4019,13 +4049,13 @@
         <v>55874</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -4034,13 +4064,13 @@
         <v>113296</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4085,13 @@
         <v>615617</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>917</v>
@@ -4070,13 +4100,13 @@
         <v>658012</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>1540</v>
@@ -4085,13 +4115,13 @@
         <v>1273630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4189,13 @@
         <v>362406</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>819</v>
@@ -4174,13 +4204,13 @@
         <v>536431</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>1214</v>
@@ -4189,13 +4219,13 @@
         <v>898837</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4240,13 @@
         <v>3010762</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>4526</v>
@@ -4225,13 +4255,13 @@
         <v>3259115</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>7492</v>
@@ -4240,13 +4270,13 @@
         <v>6269878</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
